--- a/[61C SU23] Project 3B ROM Control Logic.xlsx
+++ b/[61C SU23] Project 3B ROM Control Logic.xlsx
@@ -362,7 +362,7 @@
     <t>0b0010011</t>
   </si>
   <si>
-    <t>01</t>
+    <t>00</t>
   </si>
   <si>
     <t>slli rd, rs1, imm</t>
@@ -1559,20 +1559,20 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5:P16"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6339285714286" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="5.38392857142857" customWidth="1"/>
-    <col min="3" max="3" width="9.88392857142857" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.0535714285714" customWidth="1"/>
+    <col min="4" max="4" width="6.53571428571429" customWidth="1"/>
+    <col min="5" max="5" width="13.8303571428571" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="17" max="17" width="16.75" hidden="1" customWidth="1"/>
@@ -2847,11 +2847,11 @@
       </c>
       <c r="P20" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>1041</v>
+        <v>0041</v>
       </c>
       <c r="Q20" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>0001000001000001</v>
+        <v>0000000001000001</v>
       </c>
       <c r="R20" s="31" t="str">
         <f t="shared" si="3"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="S20" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>00010000</v>
+        <v>00000000</v>
       </c>
       <c r="T20" s="31" t="str">
         <f t="shared" ref="T20:U20" si="21">BIN2HEX(R20,2)</f>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="U20" s="33" t="str">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>00</v>
       </c>
       <c r="V20" s="30">
         <v>15</v>
